--- a/teaching/traditional_assets/database/data/philippines/philippines_farming_agriculture.xlsx
+++ b/teaching/traditional_assets/database/data/philippines/philippines_farming_agriculture.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.04650000000000001</v>
+        <v>-0.102</v>
       </c>
       <c r="G2">
-        <v>0.04715189873417721</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="H2">
-        <v>0.04715189873417721</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="I2">
-        <v>-0.1147151898734177</v>
+        <v>-0.1302621779331298</v>
       </c>
       <c r="J2">
-        <v>-0.1147151898734177</v>
+        <v>-0.1302621779331298</v>
       </c>
       <c r="K2">
-        <v>-36.3</v>
+        <v>-78.59999999999999</v>
       </c>
       <c r="L2">
-        <v>-0.2871835443037974</v>
+        <v>-0.7947421638018199</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>8.449999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="V2">
-        <v>0.1541970802919708</v>
+        <v>0.3138936535162951</v>
       </c>
       <c r="W2">
-        <v>-0.1831483350151362</v>
+        <v>-0.4473534433693796</v>
       </c>
       <c r="X2">
-        <v>0.1694006716860677</v>
+        <v>0.1179750177898918</v>
       </c>
       <c r="Y2">
-        <v>-0.3525490067012039</v>
+        <v>-0.5653284611592714</v>
       </c>
       <c r="Z2">
-        <v>0.3353407794550713</v>
+        <v>0.28657558797091</v>
       </c>
       <c r="AA2">
-        <v>-0.0384686811874884</v>
+        <v>-0.03732996023155796</v>
       </c>
       <c r="AB2">
-        <v>0.06086062058910702</v>
+        <v>0.05705279222201474</v>
       </c>
       <c r="AC2">
-        <v>-0.09932930177659541</v>
+        <v>-0.09438275245357271</v>
       </c>
       <c r="AD2">
-        <v>198.4</v>
+        <v>111.3</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.2596469879326789</v>
       </c>
       <c r="AF2">
-        <v>198.4</v>
+        <v>111.5596469879327</v>
       </c>
       <c r="AG2">
-        <v>189.95</v>
+        <v>93.25964698793268</v>
       </c>
       <c r="AH2">
-        <v>0.7835703001579779</v>
+        <v>0.6567754553019777</v>
       </c>
       <c r="AI2">
-        <v>0.5289256198347108</v>
+        <v>0.4805298786215478</v>
       </c>
       <c r="AJ2">
-        <v>0.7760980592441268</v>
+        <v>0.6153329652144023</v>
       </c>
       <c r="AK2">
-        <v>0.5180690031365063</v>
+        <v>0.4360787474468944</v>
       </c>
       <c r="AL2">
-        <v>9.140000000000001</v>
+        <v>8.16</v>
       </c>
       <c r="AM2">
-        <v>9.140000000000001</v>
+        <v>8.128</v>
       </c>
       <c r="AN2">
-        <v>33.28859060402684</v>
+        <v>8.451666793226517</v>
       </c>
       <c r="AO2">
-        <v>-1.586433260393873</v>
+        <v>-1.605392156862745</v>
       </c>
       <c r="AP2">
-        <v>31.87080536912752</v>
+        <v>7.081756168876352</v>
       </c>
       <c r="AQ2">
-        <v>-1.586433260393873</v>
+        <v>-1.611712598425197</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.04650000000000001</v>
+        <v>-0.102</v>
       </c>
       <c r="G3">
-        <v>0.04715189873417721</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="H3">
-        <v>0.04715189873417721</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="I3">
-        <v>-0.1147151898734177</v>
+        <v>-0.1302621779331298</v>
       </c>
       <c r="J3">
-        <v>-0.1147151898734177</v>
+        <v>-0.1302621779331298</v>
       </c>
       <c r="K3">
-        <v>-36.3</v>
+        <v>-78.59999999999999</v>
       </c>
       <c r="L3">
-        <v>-0.2871835443037974</v>
+        <v>-0.7947421638018199</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>8.449999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="V3">
-        <v>0.1541970802919708</v>
+        <v>0.3138936535162951</v>
       </c>
       <c r="W3">
-        <v>-0.1831483350151362</v>
+        <v>-0.4473534433693796</v>
       </c>
       <c r="X3">
-        <v>0.1694006716860677</v>
+        <v>0.1179750177898918</v>
       </c>
       <c r="Y3">
-        <v>-0.3525490067012039</v>
+        <v>-0.5653284611592714</v>
       </c>
       <c r="Z3">
-        <v>0.3353407794550713</v>
+        <v>0.28657558797091</v>
       </c>
       <c r="AA3">
-        <v>-0.0384686811874884</v>
+        <v>-0.03732996023155796</v>
       </c>
       <c r="AB3">
-        <v>0.06086062058910702</v>
+        <v>0.05705279222201474</v>
       </c>
       <c r="AC3">
-        <v>-0.09932930177659541</v>
+        <v>-0.09438275245357271</v>
       </c>
       <c r="AD3">
-        <v>198.4</v>
+        <v>111.3</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.2596469879326789</v>
       </c>
       <c r="AF3">
-        <v>198.4</v>
+        <v>111.5596469879327</v>
       </c>
       <c r="AG3">
-        <v>189.95</v>
+        <v>93.25964698793268</v>
       </c>
       <c r="AH3">
-        <v>0.7835703001579779</v>
+        <v>0.6567754553019777</v>
       </c>
       <c r="AI3">
-        <v>0.5289256198347108</v>
+        <v>0.4805298786215478</v>
       </c>
       <c r="AJ3">
-        <v>0.7760980592441268</v>
+        <v>0.6153329652144023</v>
       </c>
       <c r="AK3">
-        <v>0.5180690031365063</v>
+        <v>0.4360787474468944</v>
       </c>
       <c r="AL3">
-        <v>9.140000000000001</v>
+        <v>8.16</v>
       </c>
       <c r="AM3">
-        <v>9.140000000000001</v>
+        <v>8.128</v>
       </c>
       <c r="AN3">
-        <v>33.28859060402684</v>
+        <v>8.451666793226517</v>
       </c>
       <c r="AO3">
-        <v>-1.586433260393873</v>
+        <v>-1.605392156862745</v>
       </c>
       <c r="AP3">
-        <v>31.87080536912752</v>
+        <v>7.081756168876352</v>
       </c>
       <c r="AQ3">
-        <v>-1.586433260393873</v>
+        <v>-1.611712598425197</v>
       </c>
     </row>
   </sheetData>
